--- a/tut05/output/0401CS09.xlsx
+++ b/tut05/output/0401CS09.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C6" t="n">
-        <v>6.022727272727272</v>
+        <v>6.02</v>
       </c>
       <c r="D6" t="n">
-        <v>7.093023255813954</v>
+        <v>7.09</v>
       </c>
       <c r="E6" t="n">
-        <v>7.042553191489362</v>
+        <v>7.04</v>
       </c>
       <c r="F6" t="n">
-        <v>7.666666666666667</v>
+        <v>7.67</v>
       </c>
       <c r="G6" t="n">
         <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>8.292682926829269</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>7.7</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C8" t="n">
-        <v>6.462365591397849</v>
+        <v>6.46</v>
       </c>
       <c r="D8" t="n">
-        <v>6.661764705882353</v>
+        <v>6.66</v>
       </c>
       <c r="E8" t="n">
-        <v>6.759562841530054</v>
+        <v>6.76</v>
       </c>
       <c r="F8" t="n">
-        <v>6.928888888888889</v>
+        <v>6.93</v>
       </c>
       <c r="G8" t="n">
-        <v>7.030188679245283</v>
+        <v>7.03</v>
       </c>
       <c r="H8" t="n">
-        <v>7.199346405228758</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.257225433526012</v>
+        <v>7.26</v>
       </c>
     </row>
   </sheetData>
